--- a/init_load/sprint_2/history_210115.xlsx
+++ b/init_load/sprint_2/history_210115.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmi/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmi/git/aumc-daily/init_load/sprint_2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{163E5452-93DE-0E45-91CD-63B3BC0950DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E2B9F5F-C0D6-B041-9D8B-9010A8AEC25E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33600" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{385A948A-B6B8-B348-A613-2E8798310D02}"/>
+    <workbookView xWindow="33400" yWindow="460" windowWidth="38400" windowHeight="19120" xr2:uid="{385A948A-B6B8-B348-A613-2E8798310D02}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,8 +32,26 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={67788FC6-4764-7E42-ACF2-5498D239181F}</author>
+  </authors>
+  <commentList>
+    <comment ref="A19" authorId="0" shapeId="0" xr:uid="{67788FC6-4764-7E42-ACF2-5498D239181F}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    추후에 itf_procedure/device/drug 쿼리에서 order1-5를 각각 union하는데 미리 합쳐두는 것은 어떨까요?(각 테이블에 적합한 order table만 호출하는 것이 개인적으론 더 좋아보이긴 합니다)</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="56">
   <si>
     <t>itf_order_2.sql</t>
   </si>
@@ -196,6 +214,1044 @@
   </si>
   <si>
     <t>사망 원인이 매핑이 되어있지 않은데, 아주대에서 매핑을 해두었어서 협의하여 사인까지 매핑하면 좋을 것 같음.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sprint3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>itf_condition_occurrence.sql</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최종적으로 location_id를 위하여 location table이 생성되어야 함. 현재는 import csv기능을 통해 해당 파일을 import 했지만, ddl 밑 import 쿼리 작성이 필요해보임 (출처: https://github.com/ohdsi-korea/ThemisKorea/blob/master/location/location_v6.csv)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>itf_procedure_occurrence.sql</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>쿼리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>실행</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>완료</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>쿼리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>확인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>완료</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>itf_device_exposure.sql</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>itf_order1-5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> union</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>하게</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>되어있는데</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모두</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> procedure</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해당하는지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>? (order 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>약처방임</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>) / Procedure</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해당되는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> EDI </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>코드는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>앞</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자리로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>끊어서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>매핑하는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>것이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>어떤지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>의견드립니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>뒤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자리는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가산이기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>때문에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이것까지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>맞추다보면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>커버리지가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>낮아지게</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>됩니다</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>itf_drug_exposure.sql</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>itf_order1-5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> union</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>하게</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>되어있는데</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모두</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> device</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해당하는지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>? (order 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>약처방임</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">)  / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>당뇨소모성재료가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모이는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> itf_order_6 table</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>호출하지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>않음</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>확인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>필요</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>itf_order1-5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> union</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>하게</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>되어있는데</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모두</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> drug</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해당하는지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">? </t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -203,7 +1259,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -239,6 +1295,27 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Malgun Gothic"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Malgun Gothic"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -262,7 +1339,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -276,10 +1353,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -296,6 +1376,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="조재형" id="{CEB2246B-BA46-9147-A5C5-DE9291D2A804}" userId="S::boyinai03@ajou.ac.kr::a8932699-32bc-4df1-94e5-6032615d4e39" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -593,12 +1679,20 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A19" dT="2021-01-15T07:57:19.57" personId="{CEB2246B-BA46-9147-A5C5-DE9291D2A804}" id="{67788FC6-4764-7E42-ACF2-5498D239181F}">
+    <text>추후에 itf_procedure/device/drug 쿼리에서 order1-5를 각각 union하는데 미리 합쳐두는 것은 어떨까요?(각 테이블에 적합한 order table만 호출하는 것이 개인적으론 더 좋아보이긴 합니다)</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED53C9F6-951D-8141-AF35-FABC89556161}">
-  <dimension ref="A1:D37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED53C9F6-951D-8141-AF35-FABC89556161}">
+  <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -609,11 +1703,11 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20">
       <c r="A1" s="1"/>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:4" ht="20">
       <c r="A2" s="1"/>
@@ -637,7 +1731,9 @@
       <c r="C3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="4" spans="1:4" ht="20">
       <c r="A4" s="2" t="s">
@@ -799,7 +1895,7 @@
       <c r="C19" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="4" t="s">
         <v>42</v>
       </c>
     </row>
@@ -813,7 +1909,7 @@
       <c r="C20" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="4" t="s">
         <v>42</v>
       </c>
     </row>
@@ -827,7 +1923,7 @@
       <c r="C21" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="4" t="s">
         <v>42</v>
       </c>
     </row>
@@ -841,7 +1937,7 @@
       <c r="C22" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="4" t="s">
         <v>42</v>
       </c>
     </row>
@@ -855,7 +1951,7 @@
       <c r="C23" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="4" t="s">
         <v>42</v>
       </c>
     </row>
@@ -869,7 +1965,7 @@
       <c r="C24" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="4" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1031,11 +2127,71 @@
       </c>
       <c r="D37" s="1"/>
     </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="3"/>
+      <c r="B39" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+    </row>
+    <row r="40" spans="1:4" ht="20">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D41" s="3"/>
+    </row>
+    <row r="42" spans="1:4" ht="20">
+      <c r="A42" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="20">
+      <c r="A43" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="20">
+      <c r="A44" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B39:D39"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>